--- a/resources/configFile/TestData.xlsx
+++ b/resources/configFile/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
@@ -27,20 +27,38 @@
     <t>password</t>
   </si>
   <si>
-    <t>vsuser</t>
-  </si>
-  <si>
-    <t>M1dn!ght*2</t>
-  </si>
-  <si>
-    <t>status</t>
+    <t>mngr283898</t>
+  </si>
+  <si>
+    <t>gUdudUb</t>
+  </si>
+  <si>
+    <t>runMode</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>sumit</t>
+  </si>
+  <si>
+    <t>intel@01</t>
+  </si>
+  <si>
+    <t>sam</t>
+  </si>
+  <si>
+    <t>test@01</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +73,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -80,15 +105,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -367,20 +404,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -398,17 +435,49 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/resources/configFile/TestData.xlsx
+++ b/resources/configFile/TestData.xlsx
@@ -396,7 +396,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -407,7 +407,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
